--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4319D9EA-A38D-4A2D-9C84-2AE7D9249204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEB82A-1D63-40EF-A685-AA2B072EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Week</t>
   </si>
@@ -42,7 +42,10 @@
     <t>What I did</t>
   </si>
   <si>
-    <t>Watched childrens show I'm familiar with and read simple manga.</t>
+    <t>Watched children's shows I'm familiar with and read simple manga.</t>
+  </si>
+  <si>
+    <t>Avatar the Last Airbender (Audiovisual, English, Familiar):15; Fist of the North Star (Text with visuals, Japanese, New):17;</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,6 +414,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2953125000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEB82A-1D63-40EF-A685-AA2B072EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB44D4-FC8E-4ABD-AD6D-5F8153DD8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Week</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Avatar the Last Airbender (Audiovisual, English, Familiar):15; Fist of the North Star (Text with visuals, Japanese, New):17;</t>
+  </si>
+  <si>
+    <t>H2O: Just Add Water Season 2 (Audiovisual, English, Familiar):20; Berserk (Text with visuals, Japanese, Familiar):23; Ijiranaide, Nagatoro-san(Text with visuals, Japanese, Re-watch):28;</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +431,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.1388310185185186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB44D4-FC8E-4ABD-AD6D-5F8153DD8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE06EA-DC8E-4D97-97E8-B1D425CF7F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Week</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>H2O: Just Add Water Season 2 (Audiovisual, English, Familiar):20; Berserk (Text with visuals, Japanese, Familiar):23; Ijiranaide, Nagatoro-san(Text with visuals, Japanese, Re-watch):28;</t>
+  </si>
+  <si>
+    <t>House of Anubis Season 2 (Audiovisual, English, New):24; Bleach (Text with visuals, Japanese, Familiar):27;</t>
+  </si>
+  <si>
+    <t>Watched children's shows from my childhood and their continuations and spin-offs with, and read simple manga.</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.2922916666666668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE06EA-DC8E-4D97-97E8-B1D425CF7F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751EA32-AC06-4348-9741-EF0AEC5F2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Week</t>
   </si>
@@ -54,7 +54,10 @@
     <t>House of Anubis Season 2 (Audiovisual, English, New):24; Bleach (Text with visuals, Japanese, Familiar):27;</t>
   </si>
   <si>
-    <t>Watched children's shows from my childhood and their continuations and spin-offs with, and read simple manga.</t>
+    <t>Your Lie in April  (Text with visuals, Japanese, Familiar):32; Drake and Josh (Audiovisual, English, Familiar):30;</t>
+  </si>
+  <si>
+    <t>Watched children's shows from my childhood and their continuations and spin-offs, and read simple manga.</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,21 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.667939814814815</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751EA32-AC06-4348-9741-EF0AEC5F2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC874B2-8887-41E7-89B8-3C5270AAECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Week</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Watched children's shows from my childhood and their continuations and spin-offs, and read simple manga.</t>
+  </si>
+  <si>
+    <t>Higehiro (Text with visuals, Japanese, New):36;  Harry Potter book 1 (Text-only, English, Familiar):32; iCarly (Audiovisual, English, Familiar):27;</t>
+  </si>
+  <si>
+    <t>Watched children's shows from my childhood, and a bit of Minecraft let's plays, read Harry Potter and manga.</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +488,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.2929166666666667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC874B2-8887-41E7-89B8-3C5270AAECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A9B68-C25F-4587-8D85-B2C6D57380EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Week</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Watched children's shows from my childhood, and a bit of Minecraft let's plays, read Harry Potter and manga.</t>
+  </si>
+  <si>
+    <t>Watched Dragon Ball Z, Youtube videos about Minecraft and read Harry Potter.</t>
+  </si>
+  <si>
+    <t>10 Cosas Estúpidas Que Hiciste en Minecraft!!! #1[https://www.youtube.com/watch?v=KvWjAVHz384] (Audiovisual, Spanish, New):36; Dragon Ball Z (Audiovisual, Japanese, Familiar):38;  Harry Potter book 2 (Text-only, English, Familiar):33;</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +508,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.1346180555555558</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A9B68-C25F-4587-8D85-B2C6D57380EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C4FE4-4D5D-4023-BB1B-2D610F8E07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -70,6 +79,12 @@
   </si>
   <si>
     <t>10 Cosas Estúpidas Que Hiciste en Minecraft!!! #1[https://www.youtube.com/watch?v=KvWjAVHz384] (Audiovisual, Spanish, New):36; Dragon Ball Z (Audiovisual, Japanese, Familiar):38;  Harry Potter book 2 (Text-only, English, Familiar):33;</t>
+  </si>
+  <si>
+    <t>Watched Dragon Ball Z, Youtube videos about Minecraft and science. Read Harry Potter and manga.</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z (Audiovisual, Japanese, Familiar):37; Berserk (Text with visuals, Japanese, Familiar):41; ¿Qué Pasó en los Primeros Minutos Después de la Desaparición de los Dinosaurios? [https://www.youtube.com/watch?v=SNSTA4G6O9I] (Audiovisual, English, New):35; Puede que Hayas Nacido Hace 5 Segundos [https://www.youtube.com/watch?v=98kebMYttzg] (Audiovisual, Spanish, New):33;</t>
   </si>
 </sst>
 </file>
@@ -113,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -406,7 +422,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="132" customWidth="1"/>
+    <col min="3" max="3" width="106.5703125" customWidth="1"/>
     <col min="4" max="4" width="105.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,6 +538,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.63166666666666671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C4FE4-4D5D-4023-BB1B-2D610F8E07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34597C2B-27BA-4B6F-8325-020131D14EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Dragon Ball Z (Audiovisual, Japanese, Familiar):37; Berserk (Text with visuals, Japanese, Familiar):41; ¿Qué Pasó en los Primeros Minutos Después de la Desaparición de los Dinosaurios? [https://www.youtube.com/watch?v=SNSTA4G6O9I] (Audiovisual, English, New):35; Puede que Hayas Nacido Hace 5 Segundos [https://www.youtube.com/watch?v=98kebMYttzg] (Audiovisual, Spanish, New):33;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantz  (Text with visuals, Japanese, New):42; Harry Potter book 3 (Text-only, English, Familiar):33; ¿Qué sienten las plantas?  - CuriosaMente 260[https://www.youtube.com/watch?v=mGgnhpZ8d5g] (Audiovisual, Spanish, New):37; ¿Qué Pasaría si Minecraft Tuviera DEMASIADOS Bloques?[https://youtu.be/2pwjZfGOCTU] (Audiovisual, Spanish, New):39; </t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -549,6 +552,20 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.2956597222222221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34597C2B-27BA-4B6F-8325-020131D14EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A07EFA7-B085-421B-9E1F-2015DED7A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Week</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gantz  (Text with visuals, Japanese, New):42; Harry Potter book 3 (Text-only, English, Familiar):33; ¿Qué sienten las plantas?  - CuriosaMente 260[https://www.youtube.com/watch?v=mGgnhpZ8d5g] (Audiovisual, Spanish, New):37; ¿Qué Pasaría si Minecraft Tuviera DEMASIADOS Bloques?[https://youtu.be/2pwjZfGOCTU] (Audiovisual, Spanish, New):39; </t>
+  </si>
+  <si>
+    <t>Watched dubbed shows and movies without subs and Spanish shows with subs, also a bit of  Youtube videos about Minecraft and science, and read Harry Potter.</t>
+  </si>
+  <si>
+    <t>Oscuro deseo (Subtitled, Spanish, New):31; Harry Potter book 4 (Text-only, English, Familiar):34; Anne with an E (Audiovisual, English, New):33; Este Jugador CREÓ EL PLANETA TIERRA EN MINECRAFT[https://www.youtube.com/watch?v=Sm1R-CxTW_Y] (Audiovisual, Spanish, New):41; ¿Cuál será el último elemento?[https://www.youtube.com/watch?v=N-DyV7ZPZpo] (Audiovisual, Spanish, New):36;</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +576,21 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.8089930555555556</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A07EFA7-B085-421B-9E1F-2015DED7A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD98098-11A7-461F-AE2A-60781D1CBF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Week</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Oscuro deseo (Subtitled, Spanish, New):31; Harry Potter book 4 (Text-only, English, Familiar):34; Anne with an E (Audiovisual, English, New):33; Este Jugador CREÓ EL PLANETA TIERRA EN MINECRAFT[https://www.youtube.com/watch?v=Sm1R-CxTW_Y] (Audiovisual, Spanish, New):41; ¿Cuál será el último elemento?[https://www.youtube.com/watch?v=N-DyV7ZPZpo] (Audiovisual, Spanish, New):36;</t>
+  </si>
+  <si>
+    <t>Watched dubbed shows and movies without subs and Spanish shows with subs, also a bit of  Youtube videos about Minecraft and science, and read Harry Potter. Experimented with what you see in my comprehension scores this week.</t>
+  </si>
+  <si>
+    <t>Count of Monte Cristo (Text-only, French, New):28; 100 años de soledad (Text-only, Spanish, New):25; House of Cards (Audiovisual, English, Familiar):30; Dr. House (Audiovisual, English, New):31; MultiAnime PodCast 3x01 (Audio-only, Spanish, New):34; La Cotorrisa - Anecdotario 106 - No me querían en la iglesia. (Audio-only, Spanish, New):23; Club de cuervos (Audiovisual, Spanish, New):24; Somos. (Audiovisual, Spanish, New):21;</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +596,18 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.62582175925925931</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD98098-11A7-461F-AE2A-60781D1CBF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A9A0C-E838-4945-8210-9CB0EF3D48A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Week</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Count of Monte Cristo (Text-only, French, New):28; 100 años de soledad (Text-only, Spanish, New):25; House of Cards (Audiovisual, English, Familiar):30; Dr. House (Audiovisual, English, New):31; MultiAnime PodCast 3x01 (Audio-only, Spanish, New):34; La Cotorrisa - Anecdotario 106 - No me querían en la iglesia. (Audio-only, Spanish, New):23; Club de cuervos (Audiovisual, Spanish, New):24; Somos. (Audiovisual, Spanish, New):21;</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean 2 (Audiovisual, English, Familiar):38; The Lion King (Audiovisual, English, Familiar):35; Harry Potter book 4 (Text-only, English, Familiar):33; [¿Nos Estamos Volviendo Más Estúpidos?](https://youtu.be/jQNvBfNjCeM) (Audiovisual, Spanish, New):37; Madre solo hay dos (Audiovisual, Spanish, New):32; W.I.T.C.H.  (Audiovisual, English, Familiar):37;</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +612,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.87107638888888894</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A9A0C-E838-4945-8210-9CB0EF3D48A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014759B2-211A-4CAA-AE78-AD021B2B8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Week</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Pirates of the Caribbean 2 (Audiovisual, English, Familiar):38; The Lion King (Audiovisual, English, Familiar):35; Harry Potter book 4 (Text-only, English, Familiar):33; [¿Nos Estamos Volviendo Más Estúpidos?](https://youtu.be/jQNvBfNjCeM) (Audiovisual, Spanish, New):37; Madre solo hay dos (Audiovisual, Spanish, New):32; W.I.T.C.H.  (Audiovisual, English, Familiar):37;</t>
+  </si>
+  <si>
+    <t>Matrix (Audiovisual, English, Familiar):38; ¿Quién mató a Sara?  (Subtitled, Spanish, New):39; W.I.T.C.H.  (Audiovisual, English, Familiar):35; Matrix 3 (Audiovisual, English, Familiar):35; Shrek (Audiovisual, English, Familiar):33;</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -623,6 +626,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0255092592592592</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014759B2-211A-4CAA-AE78-AD021B2B8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0013A-2ECF-40E8-891C-4F8F77B95BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -105,7 +105,13 @@
     <t>Pirates of the Caribbean 2 (Audiovisual, English, Familiar):38; The Lion King (Audiovisual, English, Familiar):35; Harry Potter book 4 (Text-only, English, Familiar):33; [¿Nos Estamos Volviendo Más Estúpidos?](https://youtu.be/jQNvBfNjCeM) (Audiovisual, Spanish, New):37; Madre solo hay dos (Audiovisual, Spanish, New):32; W.I.T.C.H.  (Audiovisual, English, Familiar):37;</t>
   </si>
   <si>
-    <t>Matrix (Audiovisual, English, Familiar):38; ¿Quién mató a Sara?  (Subtitled, Spanish, New):39; W.I.T.C.H.  (Audiovisual, English, Familiar):35; Matrix 3 (Audiovisual, English, Familiar):35; Shrek (Audiovisual, English, Familiar):33;</t>
+    <t xml:space="preserve">Matrix (Audiovisual, English, Familiar):38; ¿Quién mató a Sara?  (Subtitled, Spanish, New):39; W.I.T.C.H.  (Audiovisual, English, Familiar):35; Matrix 3 (Audiovisual, English, Familiar):35; Shrek (Audiovisual, English, Familiar):33; </t>
+  </si>
+  <si>
+    <t>Lord of the Rings (Audiovisual, English, Familiar):36; La casa de las flores (Subtitled, Spanish, New):33; Oscuro deseo (Audiovisual, Spanish, Re-watch):35;  ¿Quién mató a Sara? (Audiovisual, Spanish, Re-watch):38;</t>
+  </si>
+  <si>
+    <t>Time spent that week</t>
   </si>
 </sst>
 </file>
@@ -434,211 +440,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="106.5703125" customWidth="1"/>
-    <col min="4" max="4" width="105.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" customWidth="1"/>
+    <col min="5" max="5" width="105.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>2.2927083333333331</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <f>SUM(B2)+1.2708333333</f>
+        <v>3.5635416666333333</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2.2953125000000001</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <f>SUM(B2:B3)+1.2708333333</f>
+        <v>5.8588541666333329</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1.1388310185185186</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2">
+        <f>SUM(B2:B4)+1.2708333333</f>
+        <v>6.9976851851518518</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2.2922916666666668</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2">
+        <f>SUM(B2:B5)+1.2708333333</f>
+        <v>9.2899768518185191</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1.667939814814815</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2">
+        <f>SUM(B2:B6)+1.2708333333</f>
+        <v>10.957916666633334</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2.2929166666666667</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2">
+        <f>SUM(B2:B7)+1.2708333333</f>
+        <v>13.250833333300001</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2.1346180555555558</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2">
+        <f>SUM(B2:B8)+1.2708333333</f>
+        <v>15.385451388855557</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>0.63166666666666671</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2">
+        <f>SUM(B2:B9)+1.2708333333</f>
+        <v>16.017118055522221</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2.2956597222222221</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2">
+        <f>SUM(B2:B10)+1.2708333333</f>
+        <v>18.312777777744447</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>1.8089930555555556</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2">
+        <f>SUM(B2:B11)+1.2708333333</f>
+        <v>20.121770833300001</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0.62582175925925931</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2">
+        <f>SUM(B2:B12)+1.2708333333</f>
+        <v>20.747592592559261</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>0.87107638888888894</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2">
+        <f>SUM(B2:B13)+1.2708333333</f>
+        <v>21.618668981448149</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>1.0255092592592592</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2">
+        <f>SUM(B2:B14)+1.2708333333</f>
+        <v>22.644178240707408</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.88201388888888888</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(B2:B15)+1.2708333333</f>
+        <v>23.526192129596296</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0013A-2ECF-40E8-891C-4F8F77B95BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B791C5-0898-4522-8AAF-0100C1DD4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>Time spent that week</t>
+  </si>
+  <si>
+    <t>Velvet (Subtitled, Spanish, New):38; The theory of everything (Audiovisual, English, New):39; ¿Quién mató a Sara? (Audiovisual, Spanish, New):37; Bridgerton (Audiovisual, English, New):35; Así es la escuela más cara del mundo | HARVARD[https://youtu.be/louggKlugl8] (Audiovisual, Spanish, New):40;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,11 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +723,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.4619560185185183</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(B2:B16)+1.2708333333</f>
+        <v>24.988148148114814</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B791C5-0898-4522-8AAF-0100C1DD4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF273222-CC3F-40B5-9348-F00818E3B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Week</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Velvet (Subtitled, Spanish, New):38; The theory of everything (Audiovisual, English, New):39; ¿Quién mató a Sara? (Audiovisual, Spanish, New):37; Bridgerton (Audiovisual, English, New):35; Así es la escuela más cara del mundo | HARVARD[https://youtu.be/louggKlugl8] (Audiovisual, Spanish, New):40;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dragón: el regreso de un guerrero (Audiovisual, Spanish, New):36; [La vida de los africanos nómadas ganaderos | Mundari: Sudán del Sur 🇸🇸](https://youtu.be/QX4SIUwYOHE) (Audiovisual, Spanish, New):39; [10 COSAS que NO TIENEN SENTIDO en los ANIMES](https://youtu.be/jJMJBCGrFw8) (Audiovisual, Spanish, New):35; El desorden que dejas (Subtitled, Spanish, New):41; [Cómo aprender IDIOMAS con la BIBLIA (Sí, EN SERIO)](https://youtu.be/aBOxJ5cRad8) (Audiovisual, Spanish, New):36; </t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +741,21 @@
         <v>26</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.2568981481481483</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(B2:B17)+1.2708333333</f>
+        <v>26.245046296262963</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF273222-CC3F-40B5-9348-F00818E3B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1316DCD-7AD4-4F45-BA13-1B8D2E2BECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">El Dragón: el regreso de un guerrero (Audiovisual, Spanish, New):36; [La vida de los africanos nómadas ganaderos | Mundari: Sudán del Sur 🇸🇸](https://youtu.be/QX4SIUwYOHE) (Audiovisual, Spanish, New):39; [10 COSAS que NO TIENEN SENTIDO en los ANIMES](https://youtu.be/jJMJBCGrFw8) (Audiovisual, Spanish, New):35; El desorden que dejas (Subtitled, Spanish, New):41; [Cómo aprender IDIOMAS con la BIBLIA (Sí, EN SERIO)](https://youtu.be/aBOxJ5cRad8) (Audiovisual, Spanish, New):36; </t>
+  </si>
+  <si>
+    <t>Élite (Subtitled, Spanish, New):33; Harry Potter book 5 (Text-only, English, Familiar):37; [The Last Airbender: Una HORRIBLE Película de Avatar | Tortura Audiovisual | LA ZONA CERO](https://youtu.be/_k91HM04XNg) (Audiovisual, Spanish, New):38; La venganza de las Juanas  (Audiovisual, Spanish, New):32; Velvet (Audiovisual, Spanish, New):38; Siempre bruja (Subtitled, Spanish, New):41; [El teorema de Sheldon Cooper: El número 73 es único](https://youtu.be/R7hTUxzbH48) (Audiovisual, Spanish, New):33; Historia de un crimen: Colmenares (Subtitled, Spanish, New):39;</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +759,21 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.6707291666666666</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(B2:B18)+1.2708333333</f>
+        <v>27.915775462929631</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1316DCD-7AD4-4F45-BA13-1B8D2E2BECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21005D03-CB99-49A3-9110-5A9F38443D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Élite (Subtitled, Spanish, New):33; Harry Potter book 5 (Text-only, English, Familiar):37; [The Last Airbender: Una HORRIBLE Película de Avatar | Tortura Audiovisual | LA ZONA CERO](https://youtu.be/_k91HM04XNg) (Audiovisual, Spanish, New):38; La venganza de las Juanas  (Audiovisual, Spanish, New):32; Velvet (Audiovisual, Spanish, New):38; Siempre bruja (Subtitled, Spanish, New):41; [El teorema de Sheldon Cooper: El número 73 es único](https://youtu.be/R7hTUxzbH48) (Audiovisual, Spanish, New):33; Historia de un crimen: Colmenares (Subtitled, Spanish, New):39;</t>
+  </si>
+  <si>
+    <t>El desorden que dejas (Audiovisual, Spanish, New):37; Perdida 2018 (Subtitled, Spanish, New):40; Siempre bruja (Audiovisual, Spanish, New):39; Corazón loco (Audiovisual, Spanish, New):33; [Este Jugador Tiene Un Survival HERMOSO en la Nether Update]https://youtu.be/lVYn6fshxFY) (Audiovisual, Spanish, New):32; Amadeus (Audiovisual, English, Familiar):37;</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +777,21 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.0937847222222223</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(B2:B19)+1.2708333333</f>
+        <v>30.009560185151852</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21005D03-CB99-49A3-9110-5A9F38443D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADD2A8-C180-49CE-A580-DE3D4FC0E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Week</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>El desorden que dejas (Audiovisual, Spanish, New):37; Perdida 2018 (Subtitled, Spanish, New):40; Siempre bruja (Audiovisual, Spanish, New):39; Corazón loco (Audiovisual, Spanish, New):33; [Este Jugador Tiene Un Survival HERMOSO en la Nether Update]https://youtu.be/lVYn6fshxFY) (Audiovisual, Spanish, New):32; Amadeus (Audiovisual, English, Familiar):37;</t>
+  </si>
+  <si>
+    <t>Élite (Subtitled, Spanish, New):37; the feynman lectures on physics (Text with visuals, English, New):44; Historia de un crimen: Búsqueda (Subtitled, Spanish, New):39; La casa de papel (Subtitled, Spanish, New):36;</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,6 +795,21 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.0889930555555556</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(B2:B20)+1.2708333333</f>
+        <v>32.098553240707403</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADD2A8-C180-49CE-A580-DE3D4FC0E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940042F8-DCDF-47BE-821F-D6D25A1CFE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Élite (Subtitled, Spanish, New):37; the feynman lectures on physics (Text with visuals, English, New):44; Historia de un crimen: Búsqueda (Subtitled, Spanish, New):39; La casa de papel (Subtitled, Spanish, New):36;</t>
+  </si>
+  <si>
+    <t>[10 Cosas Respondidas por Mojang! #7](https://youtu.be/jl55cLP5IAw) (Audiovisual, Spanish, New):45;</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +813,21 @@
         <v>30</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.6492013888888889</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(B2:B21)+1.2708333333</f>
+        <v>32.747754629596294</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940042F8-DCDF-47BE-821F-D6D25A1CFE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430ADD-42F9-457E-AA04-9F75CDA6AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>[10 Cosas Respondidas por Mojang! #7](https://youtu.be/jl55cLP5IAw) (Audiovisual, Spanish, New):45;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscuro deseo (Audiovisual, Spanish, Re-watch):32; [¿Cuáles son las MEJORES papas picantes de la tiendita? ](https://youtu.be/VbJMWqfeX1E) (Audiovisual, Spanish, New):41; </t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +831,21 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.8798842592592593</v>
+      </c>
+      <c r="C22" s="2">
+        <f>SUM(B2:B22)+1.2708333333</f>
+        <v>34.62763888885555</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430ADD-42F9-457E-AA04-9F75CDA6AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C0CFE-1AED-41E2-8BC3-42240B722A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oscuro deseo (Audiovisual, Spanish, Re-watch):32; [¿Cuáles son las MEJORES papas picantes de la tiendita? ](https://youtu.be/VbJMWqfeX1E) (Audiovisual, Spanish, New):41; </t>
+  </si>
+  <si>
+    <t>¿Quién mató a Sara? (Audiovisual, Spanish, Re-watch):39; Harry Potter book 7 (Text-only, English, Familiar):42; [LA CIUDAD PERFECTA - El Futuro de Stephen Hawking - Documental 720p](https://youtu.be/k7nQSaM5VjE) (Audiovisual, English, New):43; Squid Game (Audiovisual, Korean, New):37;</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +849,21 @@
         <v>32</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.3190972222222221</v>
+      </c>
+      <c r="C23" s="2">
+        <f>SUM(B2:B23)+1.2708333333</f>
+        <v>36.946736111077776</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comprehension scores.xlsx
+++ b/Comprehension scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardcore Midget Porn\spanish_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C0CFE-1AED-41E2-8BC3-42240B722A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421F830-A221-4F61-8715-D0AB67DD869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +864,18 @@
         <v>33</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.62121527777777774</v>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(B2:B24)+1.2708333333</f>
+        <v>37.567951388855555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
